--- a/강의자료/VIM/vi사용법_4_24.xlsx
+++ b/강의자료/VIM/vi사용법_4_24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>:w</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,6 +607,14 @@
   </si>
   <si>
     <t>:set guifont=Consolas:h10:cANSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대소문자 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -970,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1667,38 +1675,35 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -1706,50 +1711,61 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>120</v>
       </c>
     </row>
